--- a/medicine/Sexualité et sexologie/Acomoclitisme/Acomoclitisme.xlsx
+++ b/medicine/Sexualité et sexologie/Acomoclitisme/Acomoclitisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acomoclitisme est le fétichisme sexuel des pubis glabres. Cela signifie, par exemple, que pour l'homme ou la femme pratiquant l'acomoclitisme, la vue des grandes lèvres rasées de sa partenaire, ou des bourses et pourtour de la verge rasés pour son partenaire est une source d'excitation sexuelle. Il ne faut pas confondre l'acomoclitisme (c'est-à-dire l'attirance sexuelle) avec les pratiques (le rasage ou l'épilation pubienne).
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières traces de l'acomoclitisme se trouvent chez les Égyptiens (même si les premières pinces à épiler se trouvent dans des tombes préhistoriques). Le pharaon Ramsès II imposait l'épilation intégrale à son harem. Les prêtres et prêtresses étaient également fréquemment épilés en signe de pureté.
 Il est très difficile de déterminer laquelle, de l'attirance sexuelle ou de la pratique, est née en premier.
@@ -549,9 +563,11 @@
           <t>Risque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rasage intime peut engendrer des verrues[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rasage intime peut engendrer des verrues.
 </t>
         </is>
       </c>
